--- a/sources/Ukrainian_data.xlsx
+++ b/sources/Ukrainian_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Ukrainian" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ukrainian!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ukrainian!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="849">
   <si>
     <t>language_no</t>
   </si>
@@ -1690,13 +1690,892 @@
   </si>
   <si>
     <t>NOMcerezACC</t>
+  </si>
+  <si>
+    <t>болить</t>
+  </si>
+  <si>
+    <t>uGEN</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>хворіє</t>
+  </si>
+  <si>
+    <t>naACC</t>
+  </si>
+  <si>
+    <t>боїться</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>кинув</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>вистачає</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>схожий</t>
+  </si>
+  <si>
+    <t>довіряє</t>
+  </si>
+  <si>
+    <t>взяв</t>
+  </si>
+  <si>
+    <t>бачить</t>
+  </si>
+  <si>
+    <t>впливає</t>
+  </si>
+  <si>
+    <t>зустрівся</t>
+  </si>
+  <si>
+    <t>zINS</t>
+  </si>
+  <si>
+    <t>зайшов</t>
+  </si>
+  <si>
+    <t>doGEN</t>
+  </si>
+  <si>
+    <t>виграв</t>
+  </si>
+  <si>
+    <t>вийшов</t>
+  </si>
+  <si>
+    <t>zGEN</t>
+  </si>
+  <si>
+    <t>жене</t>
+  </si>
+  <si>
+    <t>зігнув</t>
+  </si>
+  <si>
+    <t>сказав</t>
+  </si>
+  <si>
+    <t>тримає</t>
+  </si>
+  <si>
+    <t>наздогнав</t>
+  </si>
+  <si>
+    <t>подоїв</t>
+  </si>
+  <si>
+    <t>дістався</t>
+  </si>
+  <si>
+    <t>доторкнувся</t>
+  </si>
+  <si>
+    <t>б’ється</t>
+  </si>
+  <si>
+    <t>товаришує</t>
+  </si>
+  <si>
+    <t>думає</t>
+  </si>
+  <si>
+    <t>proACC</t>
+  </si>
+  <si>
+    <t>з’їв</t>
+  </si>
+  <si>
+    <t>засмажив</t>
+  </si>
+  <si>
+    <t>чекає</t>
+  </si>
+  <si>
+    <t>забувся</t>
+  </si>
+  <si>
+    <t>залежить</t>
+  </si>
+  <si>
+    <t>vidGEN</t>
+  </si>
+  <si>
+    <t>покликав</t>
+  </si>
+  <si>
+    <t>познайомився</t>
+  </si>
+  <si>
+    <t>знає</t>
+  </si>
+  <si>
+    <t>грає</t>
+  </si>
+  <si>
+    <t>naLOC</t>
+  </si>
+  <si>
+    <t>уникає</t>
+  </si>
+  <si>
+    <t>виготовив</t>
+  </si>
+  <si>
+    <t>знущається</t>
+  </si>
+  <si>
+    <t>є</t>
+  </si>
+  <si>
+    <t>шукає</t>
+  </si>
+  <si>
+    <t>зафарбував</t>
+  </si>
+  <si>
+    <t>вкусила</t>
+  </si>
+  <si>
+    <t>втратив</t>
+  </si>
+  <si>
+    <t>зламав</t>
+  </si>
+  <si>
+    <t>лестить</t>
+  </si>
+  <si>
+    <t>кохає</t>
+  </si>
+  <si>
+    <t>махає</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>мріє</t>
+  </si>
+  <si>
+    <t>вимив</t>
+  </si>
+  <si>
+    <t>одягнув</t>
+  </si>
+  <si>
+    <t>називається</t>
+  </si>
+  <si>
+    <t>покарав</t>
+  </si>
+  <si>
+    <t>накинувся</t>
+  </si>
+  <si>
+    <t>наповнилося</t>
+  </si>
+  <si>
+    <t>знайшов</t>
+  </si>
+  <si>
+    <t>не вистачає</t>
+  </si>
+  <si>
+    <t>ненавидить</t>
+  </si>
+  <si>
+    <t>подобається</t>
+  </si>
+  <si>
+    <t>необхідні</t>
+  </si>
+  <si>
+    <t>оточують</t>
+  </si>
+  <si>
+    <t>залишилося</t>
+  </si>
+  <si>
+    <t>відповів</t>
+  </si>
+  <si>
+    <t>відкрив</t>
+  </si>
+  <si>
+    <t>відрізняється</t>
+  </si>
+  <si>
+    <t>відстав</t>
+  </si>
+  <si>
+    <t>оре</t>
+  </si>
+  <si>
+    <t>пересік</t>
+  </si>
+  <si>
+    <t>заспівав</t>
+  </si>
+  <si>
+    <t>написав</t>
+  </si>
+  <si>
+    <t>випив</t>
+  </si>
+  <si>
+    <t>розплавив</t>
+  </si>
+  <si>
+    <t>підходить</t>
+  </si>
+  <si>
+    <t>покинув</t>
+  </si>
+  <si>
+    <t>покриває</t>
+  </si>
+  <si>
+    <t>пам’ятає</t>
+  </si>
+  <si>
+    <t>допоміг</t>
+  </si>
+  <si>
+    <t>розуміє</t>
+  </si>
+  <si>
+    <t>потрапила</t>
+  </si>
+  <si>
+    <t>vACC</t>
+  </si>
+  <si>
+    <t>порізався</t>
+  </si>
+  <si>
+    <t>прилип</t>
+  </si>
+  <si>
+    <t>програв</t>
+  </si>
+  <si>
+    <t>зрадів</t>
+  </si>
+  <si>
+    <t>розмовляє</t>
+  </si>
+  <si>
+    <t>народила</t>
+  </si>
+  <si>
+    <t>впустив</t>
+  </si>
+  <si>
+    <t>керує</t>
+  </si>
+  <si>
+    <t>сумує</t>
+  </si>
+  <si>
+    <t>zaINS</t>
+  </si>
+  <si>
+    <t>йде</t>
+  </si>
+  <si>
+    <t>зліз</t>
+  </si>
+  <si>
+    <t>слухає</t>
+  </si>
+  <si>
+    <t>чує</t>
+  </si>
+  <si>
+    <t>змішався</t>
+  </si>
+  <si>
+    <t>дивиться</t>
+  </si>
+  <si>
+    <t>зняв</t>
+  </si>
+  <si>
+    <t>згодився</t>
+  </si>
+  <si>
+    <t>посварився</t>
+  </si>
+  <si>
+    <t>коштує</t>
+  </si>
+  <si>
+    <t>вистрілив</t>
+  </si>
+  <si>
+    <t>насипав</t>
+  </si>
+  <si>
+    <t>загубив</t>
+  </si>
+  <si>
+    <t>потонуло</t>
+  </si>
+  <si>
+    <t>vLOC</t>
+  </si>
+  <si>
+    <t>вбив</t>
+  </si>
+  <si>
+    <t>вдарив</t>
+  </si>
+  <si>
+    <t>поцілував</t>
+  </si>
+  <si>
+    <t>прочитав</t>
+  </si>
+  <si>
+    <t>поворушив</t>
+  </si>
+  <si>
+    <t>поважає</t>
+  </si>
+  <si>
+    <t>гидує</t>
+  </si>
+  <si>
+    <t>задоволений</t>
+  </si>
+  <si>
+    <t>закохався</t>
+  </si>
+  <si>
+    <t>жаліє</t>
+  </si>
+  <si>
+    <t>заздрить</t>
+  </si>
+  <si>
+    <t>здивувався</t>
+  </si>
+  <si>
+    <t>любить</t>
+  </si>
+  <si>
+    <t>насолоджується</t>
+  </si>
+  <si>
+    <t>хоче</t>
+  </si>
+  <si>
+    <t>образився</t>
+  </si>
+  <si>
+    <t>засмутив</t>
+  </si>
+  <si>
+    <t>вразило</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>зневажає</t>
+  </si>
+  <si>
+    <t>засмутився</t>
+  </si>
+  <si>
+    <t>cerezACC</t>
+  </si>
+  <si>
+    <t>дратується</t>
+  </si>
+  <si>
+    <t>симпатизує</t>
+  </si>
+  <si>
+    <t>соромиться</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>НЗ: бывает еще NOMnaACC, но это чаще</t>
+  </si>
+  <si>
+    <t>НЗ: "Некоторые признают вариативность, но большинство за  генитив"</t>
+  </si>
+  <si>
+    <t>Реже NOMnadINS</t>
+  </si>
+  <si>
+    <t>Есть еще переходный вариант (Петро має машину).</t>
+  </si>
+  <si>
+    <t>НЗ: "Там ещё и другие рамки управления по словарю, но это то, что дает информант."</t>
+  </si>
+  <si>
+    <t>НЗ: "глагол "хватать" (5) с отрицанием"</t>
+  </si>
+  <si>
+    <t>НЗ: "Пришлось взять "книгу" вместо "письма", из-за некоторых грамматических особеннойстей этого существительного в украинском."</t>
+  </si>
+  <si>
+    <t>НЗ: "Не совсем "молоко", но глагол несомненно переходный."</t>
+  </si>
+  <si>
+    <t>НЗ: "Вариативность предлогов у/в."</t>
+  </si>
+  <si>
+    <t>НЗ: "Словарь дает другие переводы, но информант настаивает на этом."</t>
+  </si>
+  <si>
+    <t>НЗ: "Глагол с более общим значением "идти", но информант отказвается дать более конкретный вариант перевода. Тот же перевод глагола дает словарь ABBYY Lingvo"</t>
+  </si>
+  <si>
+    <t>нЗ: "із / з - варианты"</t>
+  </si>
+  <si>
+    <t>91=92</t>
+  </si>
+  <si>
+    <t>92=91</t>
+  </si>
+  <si>
+    <t>НЗ: "Не пассивизируетсся, естественно, но это и так понятно с такими глаголами."</t>
+  </si>
+  <si>
+    <t>НЗ: ""у" - вариант предлога "в" перед в-"</t>
+  </si>
+  <si>
+    <t>Пассив. Изначально здесь был засчитан вариант "Петро здивувався із цього подарунка", по поводу которого, впрочем, Наташа написала так: "С трудом добилась. Носители постоянно пытались породить предложения типа "Петра здивував цей подарунок" или "Петро здивований цим подарунком"." В результате я засчитываю этот более естественный вариант, несмотря на то, что, возможно, он как-то и отличается акционально от стимула.</t>
+  </si>
+  <si>
+    <t>Не засчитываю. НЗ: "Конверсив. Словарь дает соотвествующий возвратный глагол, но информанты отказываются порождать высказывание с ним."</t>
+  </si>
+  <si>
+    <t>Пассив. Изначально здесь был засчитан вариант "Петро дратується через свою дочку", по поводу которого, впрочем, Наташа написала так: "Опять же, с трудом получила. Пытались переводить "Петра дратує його дочка" и "Петро роздратований на свою доньку"". В результате я засчитываю этот более естественный вариант, несмотря на то, что, возможно, он как-то и отличается акционально от стимула.</t>
+  </si>
+  <si>
+    <t>У Петра болить голова</t>
+  </si>
+  <si>
+    <t>Петро хворіє на грип</t>
+  </si>
+  <si>
+    <t>Петро боїться собаки</t>
+  </si>
+  <si>
+    <t>Петро кинув камінь</t>
+  </si>
+  <si>
+    <t>Петру вистачає грошей</t>
+  </si>
+  <si>
+    <t>Петро схожий на Марію</t>
+  </si>
+  <si>
+    <t>Петро довіряє Марії</t>
+  </si>
+  <si>
+    <t>Петро взяв книгу</t>
+  </si>
+  <si>
+    <t>Петро бачить будинок</t>
+  </si>
+  <si>
+    <t>Вік впливає на пам’ять</t>
+  </si>
+  <si>
+    <t>Петро зустрівся з Марією</t>
+  </si>
+  <si>
+    <t>Петро зайшов до хати</t>
+  </si>
+  <si>
+    <t>Петро виграв у Марії</t>
+  </si>
+  <si>
+    <t>Петро вийшов з дому</t>
+  </si>
+  <si>
+    <t>Петро жене корову</t>
+  </si>
+  <si>
+    <t>Петро зігнув гілку</t>
+  </si>
+  <si>
+    <t>Петро сказав Марії</t>
+  </si>
+  <si>
+    <t>Петро тримає книгу</t>
+  </si>
+  <si>
+    <t>Петро наздогнав Марію</t>
+  </si>
+  <si>
+    <t>Петро подоїв корову</t>
+  </si>
+  <si>
+    <t>Петро дістався берега</t>
+  </si>
+  <si>
+    <t>Петро доторкнувся до стіни</t>
+  </si>
+  <si>
+    <t>Петро б’ється з Марією</t>
+  </si>
+  <si>
+    <t>Петро товаришує з Марією</t>
+  </si>
+  <si>
+    <t>Петро думає про Марію</t>
+  </si>
+  <si>
+    <t>Петро з’їв яблуко</t>
+  </si>
+  <si>
+    <t>Петро засмажив цього карася</t>
+  </si>
+  <si>
+    <t>Петро чекає Марію</t>
+  </si>
+  <si>
+    <t>Петро забувся про іншу дорогу</t>
+  </si>
+  <si>
+    <t>Пам'ять залежить від віку</t>
+  </si>
+  <si>
+    <t>Петро покликав Марію</t>
+  </si>
+  <si>
+    <t>Петро познайомився з Марією рік тому</t>
+  </si>
+  <si>
+    <t>Петро знає Марію</t>
+  </si>
+  <si>
+    <t>Петро грає на гітарі</t>
+  </si>
+  <si>
+    <t>Петро уникає Марії</t>
+  </si>
+  <si>
+    <t>Петро виготовив вибухівку</t>
+  </si>
+  <si>
+    <t>Петро знущається з Марії</t>
+  </si>
+  <si>
+    <t>У Петра є машина</t>
+  </si>
+  <si>
+    <t>Петро шукає ключі</t>
+  </si>
+  <si>
+    <t>Петро зафарбував загорожу</t>
+  </si>
+  <si>
+    <t>Собака вкусила Петра</t>
+  </si>
+  <si>
+    <t>Петро втратив дім</t>
+  </si>
+  <si>
+    <t>Петро ловить кицьку</t>
+  </si>
+  <si>
+    <t>Петро зламав палицю</t>
+  </si>
+  <si>
+    <t>Петро лестить Марії</t>
+  </si>
+  <si>
+    <t>Петро кохає Марію</t>
+  </si>
+  <si>
+    <t>Петро махає хусткою</t>
+  </si>
+  <si>
+    <t>Петро мріє про машину</t>
+  </si>
+  <si>
+    <t>Петро вимив чашку</t>
+  </si>
+  <si>
+    <t>Петро одягнув штани</t>
+  </si>
+  <si>
+    <t>Цей предмет інструмент називається компас</t>
+  </si>
+  <si>
+    <t>Петро покарав свого сина</t>
+  </si>
+  <si>
+    <t>Ведмідь накинувся на рибака</t>
+  </si>
+  <si>
+    <t>Відро наповнилося водою</t>
+  </si>
+  <si>
+    <t>Петро знайшов ключі</t>
+  </si>
+  <si>
+    <t>Петру не вистачає одного долара</t>
+  </si>
+  <si>
+    <t>Петро ненавидить Марію</t>
+  </si>
+  <si>
+    <t>Петру подобається ця сорочка</t>
+  </si>
+  <si>
+    <t>Петру необхідні гроші</t>
+  </si>
+  <si>
+    <t>Місто оточують стіни</t>
+  </si>
+  <si>
+    <t>У Петра залишилося десять доларів</t>
+  </si>
+  <si>
+    <t>Петро відповів учителю</t>
+  </si>
+  <si>
+    <t>Петро відкрив банку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя сорочка відрізняється від твоєї. </t>
+  </si>
+  <si>
+    <t>Петро відстав від Марії</t>
+  </si>
+  <si>
+    <t>Петро оре поле</t>
+  </si>
+  <si>
+    <t>Мої руки пахнуть бензином</t>
+  </si>
+  <si>
+    <t>Петро пересік дорогу</t>
+  </si>
+  <si>
+    <t>Петро заспівав гарну пісню</t>
+  </si>
+  <si>
+    <t>Петро написав книгу.</t>
+  </si>
+  <si>
+    <t>Петро випив цей стакан молока</t>
+  </si>
+  <si>
+    <t>Петро розплавив шматок свинцю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цей пояс підходить до мого плаття. </t>
+  </si>
+  <si>
+    <t>Петро покинув рідне місто</t>
+  </si>
+  <si>
+    <t>Килим покриває всю підлогу</t>
+  </si>
+  <si>
+    <t>Петро гарно пам’ятає дім</t>
+  </si>
+  <si>
+    <t>Петро допоміг Марії</t>
+  </si>
+  <si>
+    <t>Петро розуміє французьку мову</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блискавка потрапила у дім. </t>
+  </si>
+  <si>
+    <t>Петро порізався бритвою</t>
+  </si>
+  <si>
+    <t>Стакан прилип до столу</t>
+  </si>
+  <si>
+    <t>Петро програв Марії</t>
+  </si>
+  <si>
+    <t>Петро зрадів листу</t>
+  </si>
+  <si>
+    <t>Петро розмовляє з Марією</t>
+  </si>
+  <si>
+    <t>Марія народила сина</t>
+  </si>
+  <si>
+    <t>Петро впустив склянку</t>
+  </si>
+  <si>
+    <t>Петро керує нашим селищем</t>
+  </si>
+  <si>
+    <t>Петро сумує за Марією</t>
+  </si>
+  <si>
+    <t>Петро йде за Марією</t>
+  </si>
+  <si>
+    <t>Петро зліз із коня</t>
+  </si>
+  <si>
+    <t>Петро слухає радіо</t>
+  </si>
+  <si>
+    <t>Петро слухає маму</t>
+  </si>
+  <si>
+    <t>Петро чує музику</t>
+  </si>
+  <si>
+    <t>Мед змішався з молоком</t>
+  </si>
+  <si>
+    <t>Петро дивиться на хмари</t>
+  </si>
+  <si>
+    <t>Петро зняв сорочку</t>
+  </si>
+  <si>
+    <t>Марії сниться Петро</t>
+  </si>
+  <si>
+    <t>Петро згодився з Марією</t>
+  </si>
+  <si>
+    <t>Петро посварився з Марією</t>
+  </si>
+  <si>
+    <t>Ця чашка коштує один долар</t>
+  </si>
+  <si>
+    <t>Петро вистрілив у птаха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петро насипав цукор у чашку </t>
+  </si>
+  <si>
+    <t>Петро загубив ключі</t>
+  </si>
+  <si>
+    <t>Поліно потонуло у воді</t>
+  </si>
+  <si>
+    <t>Петро вбив Марію</t>
+  </si>
+  <si>
+    <t>Петро вдарив Марію</t>
+  </si>
+  <si>
+    <t>Петро поцілував Марію</t>
+  </si>
+  <si>
+    <t>Петро прочитав цікаву книгу</t>
+  </si>
+  <si>
+    <t>Петро поворушив пальцем</t>
+  </si>
+  <si>
+    <t>Петро поважає Марію</t>
+  </si>
+  <si>
+    <t>Петро гидує брудним посудом</t>
+  </si>
+  <si>
+    <t>Петро задоволений сином</t>
+  </si>
+  <si>
+    <t>Петро закохався в Марію</t>
+  </si>
+  <si>
+    <t>Петро жаліє свою матір</t>
+  </si>
+  <si>
+    <t>Петро заздрить Марії</t>
+  </si>
+  <si>
+    <t>Петро злиться на Марію</t>
+  </si>
+  <si>
+    <t>Петро здивований цим подарунком</t>
+  </si>
+  <si>
+    <t>Петро любить чай</t>
+  </si>
+  <si>
+    <t>Петро насолоджується гарячим чаєм</t>
+  </si>
+  <si>
+    <t>Петро хоче новий мобільний</t>
+  </si>
+  <si>
+    <t>Петро сердиться на Марію</t>
+  </si>
+  <si>
+    <t>Петро образився на Марію</t>
+  </si>
+  <si>
+    <t>Петро дуже засмутив Марію</t>
+  </si>
+  <si>
+    <t>Петра вразило це місто</t>
+  </si>
+  <si>
+    <t>Петро зневажає Марію</t>
+  </si>
+  <si>
+    <t>Петро засмутився через сина</t>
+  </si>
+  <si>
+    <t>Петро роздратований на свою доньку</t>
+  </si>
+  <si>
+    <t>Петро симпатизує Марії</t>
+  </si>
+  <si>
+    <t>Петро соромиться свого росту</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1715,6 +2594,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1756,10 +2640,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1780,14 +2665,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2065,37 +2950,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="9" customWidth="1"/>
-    <col min="11" max="11" width="6" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="46" style="9" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="4.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="46" style="8" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,8 +3040,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>41</v>
       </c>
@@ -2176,22 +3069,34 @@
       <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="10" t="s">
+      <c r="H2" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>536</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>718</v>
+      </c>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>41</v>
       </c>
@@ -2213,22 +3118,34 @@
       <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="10" t="s">
+      <c r="H3" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>719</v>
+      </c>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>41</v>
       </c>
@@ -2250,22 +3167,34 @@
       <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="10" t="s">
+      <c r="H4" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>538</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>720</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>41</v>
       </c>
@@ -2287,22 +3216,34 @@
       <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10" t="s">
+      <c r="H5" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>721</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>41</v>
       </c>
@@ -2324,22 +3265,34 @@
       <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="10" t="s">
+      <c r="H6" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>540</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>722</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>41</v>
       </c>
@@ -2361,22 +3314,36 @@
       <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="10" t="s">
+      <c r="H7" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>723</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S7" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>41</v>
       </c>
@@ -2398,22 +3365,34 @@
       <c r="G8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="10" t="s">
+      <c r="H8" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>724</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>41</v>
       </c>
@@ -2435,22 +3414,34 @@
       <c r="G9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="10" t="s">
+      <c r="H9" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>41</v>
       </c>
@@ -2472,22 +3463,34 @@
       <c r="G10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="10" t="s">
+      <c r="H10" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>41</v>
       </c>
@@ -2509,22 +3512,34 @@
       <c r="G11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="10" t="s">
+      <c r="H11" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>41</v>
       </c>
@@ -2546,22 +3561,34 @@
       <c r="G12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="10" t="s">
+      <c r="H12" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>728</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>41</v>
       </c>
@@ -2583,22 +3610,34 @@
       <c r="G13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="10" t="s">
+      <c r="H13" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>543</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>729</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>41</v>
       </c>
@@ -2620,22 +3659,34 @@
       <c r="G14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10" t="s">
+      <c r="H14" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>544</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5" t="s">
+        <v>730</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>41</v>
       </c>
@@ -2657,22 +3708,34 @@
       <c r="G15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="10" t="s">
+      <c r="H15" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>545</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>731</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>41</v>
       </c>
@@ -2694,22 +3757,34 @@
       <c r="G16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="10" t="s">
+      <c r="H16" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>732</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>41</v>
       </c>
@@ -2731,22 +3806,34 @@
       <c r="G17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="10" t="s">
+      <c r="H17" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>733</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>41</v>
       </c>
@@ -2768,22 +3855,34 @@
       <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="10" t="s">
+      <c r="H18" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>734</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>41</v>
       </c>
@@ -2805,22 +3904,34 @@
       <c r="G19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="10" t="s">
+      <c r="H19" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>735</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>41</v>
       </c>
@@ -2842,22 +3953,34 @@
       <c r="G20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="10" t="s">
+      <c r="H20" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>736</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>41</v>
       </c>
@@ -2879,22 +4002,34 @@
       <c r="G21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="10" t="s">
+      <c r="H21" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>737</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>41</v>
       </c>
@@ -2916,22 +4051,34 @@
       <c r="G22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="10" t="s">
+      <c r="H22" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>538</v>
       </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>738</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>41</v>
       </c>
@@ -2953,22 +4100,34 @@
       <c r="G23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="10" t="s">
+      <c r="H23" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>543</v>
       </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>739</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>41</v>
       </c>
@@ -2990,22 +4149,34 @@
       <c r="G24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="10" t="s">
+      <c r="H24" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>740</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>41</v>
       </c>
@@ -3027,22 +4198,34 @@
       <c r="G25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="10" t="s">
+      <c r="H25" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>41</v>
       </c>
@@ -3064,22 +4247,34 @@
       <c r="G26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="10" t="s">
+      <c r="H26" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>546</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="5" t="s">
+        <v>742</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>41</v>
       </c>
@@ -3101,22 +4296,34 @@
       <c r="G27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="10" t="s">
+      <c r="H27" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>743</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>41</v>
       </c>
@@ -3138,22 +4345,34 @@
       <c r="G28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="10" t="s">
+      <c r="H28" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>41</v>
       </c>
@@ -3175,22 +4394,36 @@
       <c r="G29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="10" t="s">
+      <c r="H29" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="5" t="s">
+        <v>745</v>
+      </c>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S29" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>41</v>
       </c>
@@ -3212,22 +4445,34 @@
       <c r="G30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="10" t="s">
+      <c r="H30" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>546</v>
       </c>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>746</v>
+      </c>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>41</v>
       </c>
@@ -3249,22 +4494,34 @@
       <c r="G31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="10" t="s">
+      <c r="H31" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>547</v>
       </c>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>747</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>41</v>
       </c>
@@ -3286,22 +4543,34 @@
       <c r="G32" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="10" t="s">
+      <c r="H32" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>748</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>41</v>
       </c>
@@ -3323,22 +4592,34 @@
       <c r="G33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="H33" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>749</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>41</v>
       </c>
@@ -3360,22 +4641,34 @@
       <c r="G34" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="H34" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="5" t="s">
+        <v>750</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>41</v>
       </c>
@@ -3397,22 +4690,34 @@
       <c r="G35" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="H35" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="9" t="s">
         <v>548</v>
       </c>
       <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="5" t="s">
+        <v>751</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>41</v>
       </c>
@@ -3434,22 +4739,36 @@
       <c r="G36" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="H36" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>538</v>
       </c>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="5" t="s">
+        <v>752</v>
+      </c>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S36" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -3471,22 +4790,34 @@
       <c r="G37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="H37" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L37" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="N37" s="5" t="s">
+        <v>753</v>
+      </c>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>41</v>
       </c>
@@ -3508,22 +4839,36 @@
       <c r="G38" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="H38" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>545</v>
       </c>
       <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="5" t="s">
+        <v>754</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S38" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>41</v>
       </c>
@@ -3545,22 +4890,36 @@
       <c r="G39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="H39" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>536</v>
       </c>
       <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="N39" s="5" t="s">
+        <v>755</v>
+      </c>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S39" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>41</v>
       </c>
@@ -3582,22 +4941,34 @@
       <c r="G40" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="10" t="s">
+      <c r="H40" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="N40" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -3619,22 +4990,34 @@
       <c r="G41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="10" t="s">
+      <c r="H41" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L41" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="N41" s="5" t="s">
+        <v>757</v>
+      </c>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3656,22 +5039,34 @@
       <c r="G42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="10" t="s">
+      <c r="H42" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L42" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="N42" s="5" t="s">
+        <v>758</v>
+      </c>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -3693,22 +5088,36 @@
       <c r="G43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="10" t="s">
+      <c r="H43" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L43" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="N43" s="5" t="s">
+        <v>759</v>
+      </c>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S43" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3730,22 +5139,34 @@
       <c r="G44" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="10" t="s">
+      <c r="H44" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="N44" s="5" t="s">
+        <v>760</v>
+      </c>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3767,22 +5188,34 @@
       <c r="G45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="10" t="s">
+      <c r="H45" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L45" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="N45" s="5" t="s">
+        <v>761</v>
+      </c>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -3804,22 +5237,34 @@
       <c r="G46" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="10" t="s">
+      <c r="H46" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="N46" s="5" t="s">
+        <v>762</v>
+      </c>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>41</v>
       </c>
@@ -3841,22 +5286,34 @@
       <c r="G47" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="10" t="s">
+      <c r="H47" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L47" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="N47" s="5" t="s">
+        <v>763</v>
+      </c>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>41</v>
       </c>
@@ -3878,22 +5335,34 @@
       <c r="G48" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="10" t="s">
+      <c r="H48" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="N48" s="5" t="s">
+        <v>764</v>
+      </c>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>41</v>
       </c>
@@ -3915,22 +5384,34 @@
       <c r="G49" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="10" t="s">
+      <c r="H49" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="9" t="s">
         <v>546</v>
       </c>
       <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="N49" s="5" t="s">
+        <v>765</v>
+      </c>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>41</v>
       </c>
@@ -3952,22 +5433,34 @@
       <c r="G50" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="H50" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L50" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="O50" s="5"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>41</v>
       </c>
@@ -3989,22 +5482,34 @@
       <c r="G51" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="H51" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L51" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>767</v>
+      </c>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>41</v>
       </c>
@@ -4026,22 +5531,34 @@
       <c r="G52" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="H52" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="9" t="s">
         <v>550</v>
       </c>
       <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5" t="s">
+        <v>768</v>
+      </c>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>41</v>
       </c>
@@ -4063,22 +5580,34 @@
       <c r="G53" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="H53" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L53" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>769</v>
+      </c>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>41</v>
       </c>
@@ -4100,22 +5629,34 @@
       <c r="G54" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="H54" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>770</v>
+      </c>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>41</v>
       </c>
@@ -4137,22 +5678,34 @@
       <c r="G55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="H55" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>771</v>
+      </c>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41</v>
       </c>
@@ -4174,22 +5727,34 @@
       <c r="G56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="H56" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L56" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="N56" s="5" t="s">
+        <v>772</v>
+      </c>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>41</v>
       </c>
@@ -4211,22 +5776,36 @@
       <c r="G57" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="H57" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="L57" s="9" t="s">
         <v>538</v>
       </c>
       <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>773</v>
+      </c>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S57" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>41</v>
       </c>
@@ -4248,22 +5827,34 @@
       <c r="G58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="H58" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L58" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="N58" s="5" t="s">
+        <v>774</v>
+      </c>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>41</v>
       </c>
@@ -4285,22 +5876,34 @@
       <c r="G59" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="H59" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="9" t="s">
         <v>551</v>
       </c>
       <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="N59" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>41</v>
       </c>
@@ -4322,22 +5925,34 @@
       <c r="G60" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="H60" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="9" t="s">
         <v>551</v>
       </c>
       <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="N60" s="5" t="s">
+        <v>776</v>
+      </c>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41</v>
       </c>
@@ -4359,22 +5974,34 @@
       <c r="G61" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="H61" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L61" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="N61" s="5" t="s">
+        <v>777</v>
+      </c>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41</v>
       </c>
@@ -4396,22 +6023,34 @@
       <c r="G62" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="H62" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="9" t="s">
         <v>536</v>
       </c>
       <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5" t="s">
+        <v>778</v>
+      </c>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41</v>
       </c>
@@ -4433,22 +6072,34 @@
       <c r="G63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="H63" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="N63" s="5" t="s">
+        <v>779</v>
+      </c>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41</v>
       </c>
@@ -4470,22 +6121,34 @@
       <c r="G64" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="H64" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L64" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="N64" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>41</v>
       </c>
@@ -4507,22 +6170,34 @@
       <c r="G65" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="H65" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="9" t="s">
         <v>547</v>
       </c>
       <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="N65" s="5" t="s">
+        <v>781</v>
+      </c>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>41</v>
       </c>
@@ -4544,22 +6219,34 @@
       <c r="G66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="H66" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="9" t="s">
         <v>547</v>
       </c>
       <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>41</v>
       </c>
@@ -4581,22 +6268,34 @@
       <c r="G67" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="H67" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L67" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
+      <c r="N67" s="5" t="s">
+        <v>783</v>
+      </c>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>41</v>
       </c>
@@ -4618,22 +6317,34 @@
       <c r="G68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="H68" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+      <c r="N68" s="5" t="s">
+        <v>784</v>
+      </c>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>41</v>
       </c>
@@ -4655,22 +6366,34 @@
       <c r="G69" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="H69" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L69" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="N69" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>41</v>
       </c>
@@ -4692,22 +6415,34 @@
       <c r="G70" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="H70" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L70" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="N70" s="5" t="s">
+        <v>786</v>
+      </c>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>41</v>
       </c>
@@ -4729,22 +6464,36 @@
       <c r="G71" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="H71" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L71" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="N71" s="5" t="s">
+        <v>787</v>
+      </c>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S71" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>41</v>
       </c>
@@ -4766,22 +6515,36 @@
       <c r="G72" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="H72" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L72" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5" t="s">
+        <v>788</v>
+      </c>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S72" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>41</v>
       </c>
@@ -4803,22 +6566,34 @@
       <c r="G73" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="H73" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L73" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="N73" s="5" t="s">
+        <v>789</v>
+      </c>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>41</v>
       </c>
@@ -4840,22 +6615,34 @@
       <c r="G74" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="H74" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="9" t="s">
         <v>543</v>
       </c>
       <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="N74" s="5" t="s">
+        <v>790</v>
+      </c>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>41</v>
       </c>
@@ -4877,22 +6664,34 @@
       <c r="G75" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="H75" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="N75" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>41</v>
       </c>
@@ -4914,22 +6713,34 @@
       <c r="G76" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="H76" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L76" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="N76" s="5" t="s">
+        <v>792</v>
+      </c>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>41</v>
       </c>
@@ -4951,22 +6762,34 @@
       <c r="G77" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="H77" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
+      <c r="N77" s="5" t="s">
+        <v>793</v>
+      </c>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>41</v>
       </c>
@@ -4988,22 +6811,34 @@
       <c r="G78" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="10" t="s">
+      <c r="H78" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="N78" s="5" t="s">
+        <v>794</v>
+      </c>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>41</v>
       </c>
@@ -5025,22 +6860,34 @@
       <c r="G79" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="10" t="s">
+      <c r="H79" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L79" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
+      <c r="N79" s="5" t="s">
+        <v>795</v>
+      </c>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>41</v>
       </c>
@@ -5062,22 +6909,36 @@
       <c r="G80" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="H80" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="9" t="s">
         <v>552</v>
       </c>
       <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
+      <c r="N80" s="5" t="s">
+        <v>796</v>
+      </c>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S80" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>41</v>
       </c>
@@ -5099,22 +6960,34 @@
       <c r="G81" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="10" t="s">
+      <c r="H81" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>41</v>
       </c>
@@ -5136,22 +7009,34 @@
       <c r="G82" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="H82" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="9" t="s">
         <v>543</v>
       </c>
       <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
+      <c r="N82" s="5" t="s">
+        <v>798</v>
+      </c>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>41</v>
       </c>
@@ -5173,22 +7058,34 @@
       <c r="G83" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="H83" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="N83" s="5" t="s">
+        <v>799</v>
+      </c>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>41</v>
       </c>
@@ -5210,22 +7107,34 @@
       <c r="G84" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="H84" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
+      <c r="N84" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>41</v>
       </c>
@@ -5247,22 +7156,34 @@
       <c r="G85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="H85" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
+      <c r="N85" s="5" t="s">
+        <v>801</v>
+      </c>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>41</v>
       </c>
@@ -5284,22 +7205,34 @@
       <c r="G86" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="H86" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L86" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
+      <c r="N86" s="5" t="s">
+        <v>802</v>
+      </c>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>41</v>
       </c>
@@ -5321,22 +7254,34 @@
       <c r="G87" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="H87" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L87" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="N87" s="5" t="s">
+        <v>803</v>
+      </c>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>41</v>
       </c>
@@ -5358,22 +7303,34 @@
       <c r="G88" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="H88" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
+      <c r="N88" s="5" t="s">
+        <v>804</v>
+      </c>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>41</v>
       </c>
@@ -5395,22 +7352,36 @@
       <c r="G89" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="H89" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89" s="9" t="s">
         <v>553</v>
       </c>
       <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="N89" s="5" t="s">
+        <v>805</v>
+      </c>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S89" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>41</v>
       </c>
@@ -5432,22 +7403,36 @@
       <c r="G90" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="H90" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="9" t="s">
         <v>553</v>
       </c>
       <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
+      <c r="N90" s="5" t="s">
+        <v>806</v>
+      </c>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S90" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>41</v>
       </c>
@@ -5469,22 +7454,36 @@
       <c r="G91" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
+      <c r="H91" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="9" t="s">
         <v>545</v>
       </c>
       <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
+      <c r="N91" s="5" t="s">
+        <v>807</v>
+      </c>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S91" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>41</v>
       </c>
@@ -5506,22 +7505,36 @@
       <c r="G92" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="H92" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L92" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
+      <c r="N92" s="5" t="s">
+        <v>808</v>
+      </c>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S92" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>41</v>
       </c>
@@ -5543,22 +7556,36 @@
       <c r="G93" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="H93" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L93" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
+      <c r="N93" s="5" t="s">
+        <v>809</v>
+      </c>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S93" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>41</v>
       </c>
@@ -5580,22 +7607,34 @@
       <c r="G94" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="H94" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L94" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
+      <c r="N94" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>41</v>
       </c>
@@ -5617,22 +7656,34 @@
       <c r="G95" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="H95" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L95" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
+      <c r="N95" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>41</v>
       </c>
@@ -5654,22 +7705,34 @@
       <c r="G96" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="H96" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
+      <c r="N96" s="5" t="s">
+        <v>812</v>
+      </c>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>41</v>
       </c>
@@ -5691,22 +7754,34 @@
       <c r="G97" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="H97" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L97" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
+      <c r="N97" s="5" t="s">
+        <v>813</v>
+      </c>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>41</v>
       </c>
@@ -5728,22 +7803,34 @@
       <c r="G98" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="H98" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L98" s="9" t="s">
         <v>551</v>
       </c>
       <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
+      <c r="N98" s="5" t="s">
+        <v>814</v>
+      </c>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>41</v>
       </c>
@@ -5765,22 +7852,34 @@
       <c r="G99" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="H99" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
+      <c r="N99" s="5" t="s">
+        <v>815</v>
+      </c>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>41</v>
       </c>
@@ -5802,22 +7901,34 @@
       <c r="G100" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
+      <c r="H100" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" s="9" t="s">
         <v>542</v>
       </c>
       <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
+      <c r="N100" s="5" t="s">
+        <v>816</v>
+      </c>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>41</v>
       </c>
@@ -5839,22 +7950,36 @@
       <c r="G101" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="H101" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L101" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
+      <c r="N101" s="5" t="s">
+        <v>817</v>
+      </c>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S101" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>41</v>
       </c>
@@ -5876,22 +8001,34 @@
       <c r="G102" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="H102" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" s="9" t="s">
         <v>552</v>
       </c>
       <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
+      <c r="N102" s="5" t="s">
+        <v>818</v>
+      </c>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>41</v>
       </c>
@@ -5913,22 +8050,34 @@
       <c r="G103" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="H103" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L103" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
+      <c r="N103" s="5" t="s">
+        <v>819</v>
+      </c>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>41</v>
       </c>
@@ -5950,22 +8099,34 @@
       <c r="G104" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="H104" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L104" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="N104" s="5" t="s">
+        <v>820</v>
+      </c>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>41</v>
       </c>
@@ -5987,22 +8148,36 @@
       <c r="G105" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="H105" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" s="9" t="s">
         <v>554</v>
       </c>
       <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
+      <c r="N105" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S105" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>41</v>
       </c>
@@ -6024,22 +8199,34 @@
       <c r="G106" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="H106" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L106" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+      <c r="N106" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>41</v>
       </c>
@@ -6061,22 +8248,34 @@
       <c r="G107" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="H107" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L107" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+      <c r="N107" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>41</v>
       </c>
@@ -6098,22 +8297,34 @@
       <c r="G108" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="H108" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L108" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
+      <c r="N108" s="5" t="s">
+        <v>824</v>
+      </c>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>41</v>
       </c>
@@ -6135,22 +8346,34 @@
       <c r="G109" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="H109" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L109" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
+      <c r="N109" s="5" t="s">
+        <v>825</v>
+      </c>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>41</v>
       </c>
@@ -6172,22 +8395,34 @@
       <c r="G110" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="H110" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L110" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
+      <c r="N110" s="5" t="s">
+        <v>826</v>
+      </c>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>41</v>
       </c>
@@ -6209,22 +8444,34 @@
       <c r="G111" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="H111" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L111" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="N111" s="5" t="s">
+        <v>827</v>
+      </c>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>41</v>
       </c>
@@ -6246,22 +8493,34 @@
       <c r="G112" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="H112" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L112" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="N112" s="5" t="s">
+        <v>828</v>
+      </c>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>41</v>
       </c>
@@ -6283,22 +8542,36 @@
       <c r="G113" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="H113" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="N113" s="5" t="s">
+        <v>829</v>
+      </c>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S113" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>41</v>
       </c>
@@ -6320,22 +8593,34 @@
       <c r="G114" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="H114" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="9" t="s">
         <v>552</v>
       </c>
       <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
+      <c r="N114" s="5" t="s">
+        <v>830</v>
+      </c>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>41</v>
       </c>
@@ -6357,22 +8642,34 @@
       <c r="G115" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="H115" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L115" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
+      <c r="N115" s="5" t="s">
+        <v>724</v>
+      </c>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>41</v>
       </c>
@@ -6394,22 +8691,34 @@
       <c r="G116" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="H116" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L116" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
+      <c r="N116" s="5" t="s">
+        <v>831</v>
+      </c>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>41</v>
       </c>
@@ -6431,22 +8740,34 @@
       <c r="G117" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="H117" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L117" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="N117" s="5" t="s">
+        <v>832</v>
+      </c>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>41</v>
       </c>
@@ -6468,22 +8789,34 @@
       <c r="G118" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="10" t="s">
+      <c r="H118" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L118" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="N118" s="5" t="s">
+        <v>833</v>
+      </c>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>41</v>
       </c>
@@ -6505,22 +8838,36 @@
       <c r="G119" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="H119" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L119" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
+      <c r="N119" s="5" t="s">
+        <v>834</v>
+      </c>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S119" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>41</v>
       </c>
@@ -6542,22 +8889,34 @@
       <c r="G120" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="10" t="s">
+      <c r="H120" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L120" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="N120" s="5" t="s">
+        <v>835</v>
+      </c>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>41</v>
       </c>
@@ -6579,22 +8938,34 @@
       <c r="G121" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="10" t="s">
+      <c r="H121" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L121" s="9" t="s">
         <v>549</v>
       </c>
       <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+      <c r="N121" s="5" t="s">
+        <v>836</v>
+      </c>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>41</v>
       </c>
@@ -6616,22 +8987,34 @@
       <c r="G122" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="H122" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L122" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
+      <c r="N122" s="5" t="s">
+        <v>837</v>
+      </c>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>41</v>
       </c>
@@ -6653,22 +9036,34 @@
       <c r="G123" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="10" t="s">
+      <c r="H123" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L123" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
+      <c r="N123" s="5" t="s">
+        <v>838</v>
+      </c>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>41</v>
       </c>
@@ -6690,22 +9085,34 @@
       <c r="G124" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="10" t="s">
+      <c r="H124" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L124" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
+      <c r="N124" s="5" t="s">
+        <v>839</v>
+      </c>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>41</v>
       </c>
@@ -6727,22 +9134,34 @@
       <c r="G125" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="10" t="s">
+      <c r="H125" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L125" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
+      <c r="N125" s="5" t="s">
+        <v>840</v>
+      </c>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>41</v>
       </c>
@@ -6764,20 +9183,32 @@
       <c r="G126" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="10"/>
+      <c r="H126" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L126" s="9"/>
       <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+      <c r="N126" s="5" t="s">
+        <v>841</v>
+      </c>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S126" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>41</v>
       </c>
@@ -6799,22 +9230,34 @@
       <c r="G127" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="10" t="s">
+      <c r="H127" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L127" s="9" t="s">
         <v>539</v>
       </c>
       <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
+      <c r="N127" s="5" t="s">
+        <v>842</v>
+      </c>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>41</v>
       </c>
@@ -6836,22 +9279,34 @@
       <c r="G128" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="10" t="s">
+      <c r="H128" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L128" s="9" t="s">
         <v>555</v>
       </c>
       <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
+      <c r="N128" s="5" t="s">
+        <v>843</v>
+      </c>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>41</v>
       </c>
@@ -6873,22 +9328,36 @@
       <c r="G129" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="10" t="s">
+      <c r="H129" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L129" s="9" t="s">
         <v>537</v>
       </c>
       <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+      <c r="N129" s="5" t="s">
+        <v>844</v>
+      </c>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S129" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>41</v>
       </c>
@@ -6910,22 +9379,34 @@
       <c r="G130" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="10" t="s">
+      <c r="H130" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L130" s="9" t="s">
         <v>541</v>
       </c>
       <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
+      <c r="N130" s="5" t="s">
+        <v>845</v>
+      </c>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S130" s="7"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>41</v>
       </c>
@@ -6947,23 +9428,35 @@
       <c r="G131" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="10" t="s">
+      <c r="H131" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L131" s="9" t="s">
         <v>538</v>
       </c>
       <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
+      <c r="N131" s="5" t="s">
+        <v>846</v>
+      </c>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="7"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/Ukrainian_data.xlsx
+++ b/sources/Ukrainian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="849">
   <si>
     <t>language_no</t>
   </si>
@@ -1632,66 +1632,9 @@
     <t>Ukrainian</t>
   </si>
   <si>
-    <t>uGENNOM</t>
-  </si>
-  <si>
-    <t>NOMnaACC</t>
-  </si>
-  <si>
-    <t>NOMGEN</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
-    <t>DATGEN</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
-    <t>NOMzINS</t>
-  </si>
-  <si>
-    <t>NOMdoGEN</t>
-  </si>
-  <si>
-    <t>NOMuGEN</t>
-  </si>
-  <si>
-    <t>NOMzGEN</t>
-  </si>
-  <si>
-    <t>NOMproACC</t>
-  </si>
-  <si>
-    <t>NOMvidGEN</t>
-  </si>
-  <si>
-    <t>NOMnaLOC</t>
-  </si>
-  <si>
-    <t>NOMINS</t>
-  </si>
-  <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>NOMvACC</t>
-  </si>
-  <si>
-    <t>NOMzaINS</t>
-  </si>
-  <si>
-    <t>NOMvLOC</t>
-  </si>
-  <si>
-    <t>NOMcerezACC</t>
-  </si>
-  <si>
     <t>болить</t>
   </si>
   <si>
@@ -2569,6 +2512,63 @@
   </si>
   <si>
     <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>DAT_GEN</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>uGEN_NOM</t>
+  </si>
+  <si>
+    <t>NOM_naACC</t>
+  </si>
+  <si>
+    <t>NOM_GEN</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_zINS</t>
+  </si>
+  <si>
+    <t>NOM_doGEN</t>
+  </si>
+  <si>
+    <t>NOM_uGEN</t>
+  </si>
+  <si>
+    <t>NOM_zGEN</t>
+  </si>
+  <si>
+    <t>NOM_proACC</t>
+  </si>
+  <si>
+    <t>NOM_vidGEN</t>
+  </si>
+  <si>
+    <t>NOM_naLOC</t>
+  </si>
+  <si>
+    <t>NOM_INS</t>
+  </si>
+  <si>
+    <t>NOM_vACC</t>
+  </si>
+  <si>
+    <t>NOM_zaINS</t>
+  </si>
+  <si>
+    <t>NOM_vLOC</t>
+  </si>
+  <si>
+    <t>NOM_cerezACC</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
   </si>
 </sst>
 </file>
@@ -2952,9 +2952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3041,10 +3039,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -3070,23 +3068,23 @@
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>536</v>
+        <v>832</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
@@ -3119,23 +3117,23 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
@@ -3168,23 +3166,23 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>538</v>
+        <v>834</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
@@ -3217,23 +3215,23 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
@@ -3266,23 +3264,23 @@
         <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
@@ -3315,30 +3313,30 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -3366,23 +3364,23 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
@@ -3415,23 +3413,23 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
@@ -3464,23 +3462,23 @@
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
@@ -3513,23 +3511,23 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
@@ -3562,23 +3560,23 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
@@ -3611,23 +3609,23 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>543</v>
+        <v>837</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
@@ -3660,23 +3658,23 @@
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>544</v>
+        <v>838</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
@@ -3709,23 +3707,23 @@
         <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>545</v>
+        <v>839</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
@@ -3758,23 +3756,23 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
@@ -3807,23 +3805,23 @@
         <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
@@ -3856,23 +3854,23 @@
         <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
@@ -3905,23 +3903,23 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
@@ -3954,23 +3952,23 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
@@ -4003,23 +4001,23 @@
         <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
@@ -4052,23 +4050,23 @@
         <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>538</v>
+        <v>834</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
@@ -4101,23 +4099,23 @@
         <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>543</v>
+        <v>837</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
@@ -4150,23 +4148,23 @@
         <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
@@ -4199,23 +4197,23 @@
         <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
@@ -4248,23 +4246,23 @@
         <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>546</v>
+        <v>840</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
@@ -4297,23 +4295,23 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="7"/>
@@ -4346,23 +4344,23 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
@@ -4395,30 +4393,30 @@
         <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -4446,23 +4444,23 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>546</v>
+        <v>840</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
@@ -4495,23 +4493,23 @@
         <v>138</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>547</v>
+        <v>841</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
@@ -4544,23 +4542,23 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
@@ -4593,23 +4591,23 @@
         <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
@@ -4642,23 +4640,23 @@
         <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
@@ -4691,23 +4689,23 @@
         <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>548</v>
+        <v>842</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
@@ -4740,30 +4738,30 @@
         <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>538</v>
+        <v>834</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -4791,23 +4789,23 @@
         <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
@@ -4840,30 +4838,30 @@
         <v>166</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>545</v>
+        <v>839</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
@@ -4891,30 +4889,30 @@
         <v>169</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>536</v>
+        <v>832</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -4942,23 +4940,23 @@
         <v>173</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
@@ -4991,23 +4989,23 @@
         <v>177</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
@@ -5040,23 +5038,23 @@
         <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
@@ -5089,30 +5087,30 @@
         <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -5143,20 +5141,20 @@
         <v>188</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
@@ -5189,23 +5187,23 @@
         <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
@@ -5238,23 +5236,23 @@
         <v>197</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
@@ -5287,23 +5285,23 @@
         <v>201</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
@@ -5336,23 +5334,23 @@
         <v>205</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
@@ -5385,23 +5383,23 @@
         <v>209</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>546</v>
+        <v>840</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
@@ -5434,23 +5432,23 @@
         <v>213</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="7"/>
@@ -5483,23 +5481,23 @@
         <v>217</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
@@ -5532,23 +5530,23 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>550</v>
+        <v>848</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
@@ -5581,23 +5579,23 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
@@ -5630,23 +5628,23 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
@@ -5679,23 +5677,23 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
@@ -5728,23 +5726,23 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
@@ -5777,30 +5775,30 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>538</v>
+        <v>830</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
@@ -5828,23 +5826,23 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
@@ -5877,23 +5875,23 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>551</v>
+        <v>831</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
@@ -5926,23 +5924,23 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>551</v>
+        <v>831</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
@@ -5975,23 +5973,23 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
@@ -6024,23 +6022,23 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>536</v>
+        <v>832</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
@@ -6073,23 +6071,23 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
@@ -6122,23 +6120,23 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
@@ -6171,23 +6169,23 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>547</v>
+        <v>841</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
@@ -6220,23 +6218,23 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>547</v>
+        <v>841</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
@@ -6269,23 +6267,23 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
@@ -6321,20 +6319,20 @@
         <v>284</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
@@ -6367,23 +6365,23 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
@@ -6416,23 +6414,23 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
@@ -6465,30 +6463,30 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
@@ -6516,30 +6514,30 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
@@ -6567,23 +6565,23 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
@@ -6616,23 +6614,23 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>543</v>
+        <v>837</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
@@ -6665,23 +6663,23 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>9</v>
+        <v>536</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
@@ -6714,23 +6712,23 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
@@ -6763,23 +6761,23 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>9</v>
+        <v>536</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
@@ -6812,23 +6810,23 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
@@ -6861,23 +6859,23 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
@@ -6910,30 +6908,30 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>552</v>
+        <v>844</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
@@ -6961,23 +6959,23 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
@@ -7010,23 +7008,23 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>543</v>
+        <v>837</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
@@ -7059,23 +7057,23 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
@@ -7108,23 +7106,23 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
@@ -7157,23 +7155,23 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
@@ -7206,23 +7204,23 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
@@ -7255,23 +7253,23 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
@@ -7304,23 +7302,23 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
@@ -7353,30 +7351,30 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>553</v>
+        <v>845</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
@@ -7404,30 +7402,30 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>553</v>
+        <v>845</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
@@ -7455,30 +7453,30 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>545</v>
+        <v>839</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
@@ -7506,30 +7504,30 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
@@ -7557,30 +7555,30 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
@@ -7608,23 +7606,23 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
@@ -7657,23 +7655,23 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
@@ -7706,23 +7704,23 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
@@ -7755,23 +7753,23 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
@@ -7807,20 +7805,20 @@
         <v>404</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>551</v>
+        <v>831</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
@@ -7853,23 +7851,23 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
@@ -7902,23 +7900,23 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>542</v>
+        <v>836</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
@@ -7951,30 +7949,30 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
@@ -8002,23 +8000,23 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>552</v>
+        <v>844</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
@@ -8051,23 +8049,23 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
@@ -8100,23 +8098,23 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
@@ -8149,30 +8147,30 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>554</v>
+        <v>846</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="7" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
@@ -8200,23 +8198,23 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
@@ -8249,23 +8247,23 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
@@ -8298,23 +8296,23 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
@@ -8347,23 +8345,23 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
@@ -8396,23 +8394,23 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
@@ -8445,23 +8443,23 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
@@ -8494,23 +8492,23 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
@@ -8543,30 +8541,30 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="7" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
@@ -8594,23 +8592,23 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>552</v>
+        <v>844</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
@@ -8643,23 +8641,23 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
@@ -8692,23 +8690,23 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
@@ -8741,23 +8739,23 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
@@ -8793,20 +8791,20 @@
         <v>482</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
@@ -8839,30 +8837,30 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="7" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
@@ -8890,23 +8888,23 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
@@ -8939,23 +8937,23 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
@@ -8988,23 +8986,23 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
@@ -9040,20 +9038,20 @@
         <v>501</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
@@ -9086,23 +9084,23 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
@@ -9135,23 +9133,23 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
@@ -9184,26 +9182,28 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>672</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="K126" s="5" t="s">
-        <v>9</v>
+        <v>672</v>
       </c>
       <c r="L126" s="9"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
@@ -9231,23 +9231,23 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M127" s="5"/>
       <c r="N127" s="5" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
@@ -9280,23 +9280,23 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>555</v>
+        <v>847</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
@@ -9329,30 +9329,30 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="7" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
@@ -9380,23 +9380,23 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>541</v>
+        <v>835</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
@@ -9429,23 +9429,23 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>538</v>
+        <v>834</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>

--- a/sources/Ukrainian_data.xlsx
+++ b/sources/Ukrainian_data.xlsx
@@ -2952,7 +2952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O120" sqref="O120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8843,7 +8845,7 @@
         <v>539</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
@@ -9335,7 +9337,7 @@
         <v>539</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>675</v>
+        <v>541</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
